--- a/upload/allowance_20250420_error.xlsx
+++ b/upload/allowance_20250420_error.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waylin\mydjango\e_invoice\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52974F2-0BC5-455E-BAB1-7DD0BB54303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368891FF-1F65-4A80-BAF7-5C60EBCFBC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
-  <si>
-    <t>errors</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>allowance_period</t>
   </si>
@@ -55,7 +52,7 @@
     <t>buyer_remark</t>
   </si>
   <si>
-    <t>tax_type</t>
+    <t>total_allowance_tax</t>
   </si>
   <si>
     <t>total_allowance_amount</t>
@@ -103,7 +100,7 @@
     <t>tax_rate</t>
   </si>
   <si>
-    <t>E01-必填欄位不可為空：total_allowance_tax; E02-格式錯誤或無效：buyer_identifier; E04-金額完整性：折讓金額明細加總不一致; E04-金額完整性：營業稅 total_tax_amount 誤差過大</t>
+    <t>TA20250508</t>
   </si>
   <si>
     <t>TA20250509</t>
@@ -112,10 +109,10 @@
     <t>ABC公司</t>
   </si>
   <si>
-    <t>AE00000006</t>
-  </si>
-  <si>
-    <t>AE00000007</t>
+    <t>AE00000009</t>
+  </si>
+  <si>
+    <t>AE00000010</t>
   </si>
   <si>
     <t>XYJZ1234</t>
@@ -127,6 +124,9 @@
     <t>ORE_DDA</t>
   </si>
   <si>
+    <t>asusdgi</t>
+  </si>
+  <si>
     <t>dsfjh9s</t>
   </si>
   <si>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>65330715</t>
-  </si>
-  <si>
-    <t>total_tax_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,18 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="215.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,477 +567,435 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11404</v>
+      </c>
+      <c r="B2">
+        <v>87637805</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
+      <c r="D2" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G2">
+        <v>94834924</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>2581.9</v>
+      </c>
+      <c r="L2">
+        <v>51638</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45786</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2">
+        <v>17000</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>51000</v>
+      </c>
+      <c r="W2">
+        <v>2550</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>11404</v>
       </c>
-      <c r="C2">
+      <c r="B3">
         <v>87637805</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G3">
+        <v>94834924</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2">
-        <v>45767</v>
-      </c>
-      <c r="H2">
-        <v>94834924</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K3">
+        <v>2581.9</v>
+      </c>
+      <c r="L3">
+        <v>51638</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45786</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="L2">
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>2881.9</v>
-      </c>
-      <c r="N2">
-        <v>60519.9</v>
-      </c>
-      <c r="O2">
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3">
+        <v>638</v>
+      </c>
+      <c r="T3">
         <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>45786</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2">
-        <v>17000</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>53550</v>
-      </c>
-      <c r="Y2">
-        <v>2550</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>11404</v>
-      </c>
-      <c r="C3">
-        <v>87637805</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45767</v>
-      </c>
-      <c r="H3">
-        <v>94834924</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2881.9</v>
-      </c>
-      <c r="N3">
-        <v>60519.9</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>45786</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
       </c>
       <c r="U3">
         <v>638</v>
       </c>
-      <c r="V3">
+      <c r="W3">
+        <v>31.9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11404</v>
+      </c>
+      <c r="B4">
+        <v>87637806</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G4">
+        <v>94834924</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>11733</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>45786</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4">
+        <v>3000</v>
+      </c>
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="W3">
-        <v>669.9</v>
-      </c>
-      <c r="Y3">
-        <v>31.9</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="U4">
+        <v>6000</v>
+      </c>
+      <c r="W4">
+        <v>300</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="s">
         <v>40</v>
       </c>
-      <c r="AB3">
-        <v>0.05</v>
+      <c r="Z4">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11404</v>
+      </c>
+      <c r="B5">
+        <v>87637806</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>11404</v>
-      </c>
-      <c r="C4">
-        <v>87637805</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G5">
+        <v>94834924</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2">
-        <v>45767</v>
-      </c>
-      <c r="H4">
-        <v>94834924</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4">
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>11733</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>2881.9</v>
-      </c>
-      <c r="N4">
-        <v>60519.9</v>
-      </c>
-      <c r="O4">
+      <c r="N5" s="2">
+        <v>45786</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5">
+        <v>3333</v>
+      </c>
+      <c r="T5">
         <v>3</v>
-      </c>
-      <c r="P4" s="2">
-        <v>45786</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4">
-        <v>3000</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>6300</v>
-      </c>
-      <c r="Y4">
-        <v>300</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>11404</v>
-      </c>
-      <c r="C5">
-        <v>87637806</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45767</v>
-      </c>
-      <c r="H5">
-        <v>94834924</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>5733</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>45786</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5">
-        <v>453453</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
       </c>
       <c r="U5">
         <v>3333</v>
       </c>
-      <c r="V5">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11404</v>
+      </c>
+      <c r="B6">
+        <v>87637806</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G6">
+        <v>94834924</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>11733</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>45786</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6">
+        <v>1200</v>
+      </c>
+      <c r="T6">
         <v>3</v>
-      </c>
-      <c r="W5">
-        <v>3333</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>11404</v>
-      </c>
-      <c r="C6">
-        <v>87637806</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45767</v>
-      </c>
-      <c r="H6">
-        <v>94834924</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>5733</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2">
-        <v>45786</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
       </c>
       <c r="U6">
         <v>1200</v>
       </c>
-      <c r="V6">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11404</v>
+      </c>
+      <c r="B7">
+        <v>87637806</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45767</v>
+      </c>
+      <c r="G7">
+        <v>94834924</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>11733</v>
+      </c>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="W6">
+      <c r="N7" s="2">
+        <v>45786</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7">
         <v>1200</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>11404</v>
-      </c>
-      <c r="C7">
-        <v>87637806</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45767</v>
-      </c>
-      <c r="H7">
-        <v>94834924</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5733</v>
-      </c>
-      <c r="O7">
+      <c r="T7">
         <v>3</v>
-      </c>
-      <c r="P7" s="2">
-        <v>45786</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>37</v>
       </c>
       <c r="U7">
         <v>1200</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
       <c r="W7">
-        <v>1200</v>
-      </c>
-      <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="X7" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="Y7" t="s">
         <v>40</v>
       </c>
-      <c r="AB7">
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
